--- a/USA/state/data/model_report/t2m_mean_1982_2013_DIC_values_w_faster.xlsx
+++ b/USA/state/data/model_report/t2m_mean_1982_2013_DIC_values_w_faster.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="11">
   <si>
     <t>sex</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>variable = 't2m_mean'</t>
-  </si>
-  <si>
-    <t>DIC average</t>
   </si>
   <si>
     <t>National</t>
@@ -54,6 +51,12 @@
   </si>
   <si>
     <t>DIC fast</t>
+  </si>
+  <si>
+    <t>DIC fast average</t>
+  </si>
+  <si>
+    <t>DIC faster average</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,20 +435,21 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -456,10 +460,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -471,19 +475,22 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -491,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5">
         <v>94918.69</v>
@@ -506,16 +513,27 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="5">
         <v>91192.639999999999</v>
       </c>
+      <c r="K4">
+        <v>91236.2</v>
+      </c>
       <c r="M4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <f>AVERAGE(D4,D6,D8,D10,D12,D14,D16,D18,D20,D22,J4,J6,J8,J10,J12,J14,J16,J18,J20,J22)</f>
+        <v>105828.51400000001</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(E4,E6,E8,E10,E12,E14,E16,E18,E20,E22,K4,K6,K8,K10,K12,K14,K16,K18,K20,K22)</f>
+        <v>105857.9955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -523,11 +541,14 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>94927.59</v>
       </c>
+      <c r="E5" s="5">
+        <v>94929.24</v>
+      </c>
       <c r="G5" s="1">
         <v>2</v>
       </c>
@@ -535,16 +556,27 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3">
         <v>91199.79</v>
       </c>
+      <c r="K5" s="5">
+        <v>91199.11</v>
+      </c>
       <c r="M5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <f>AVERAGE(D5,D7,D9,D11,D13,D15,D17,D19,D21,D23,J5,J7,J9,J11,J13,J15,J17,J19,J21,J23)</f>
+        <v>105821.71650000001</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(E5,E7,E9,E11,E13,E15,E17,E19,E21,E23,K5,K7,K9,K11,K13,K15,K17,K19,K21,K23)</f>
+        <v>105821.874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -552,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="5">
         <v>76711.929999999993</v>
@@ -567,14 +599,16 @@
         <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="3">
         <v>71322.58</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K6" s="3">
+        <v>71342.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -582,12 +616,12 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
         <v>76724.14</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>76724.33</v>
       </c>
       <c r="G7" s="2">
@@ -597,16 +631,16 @@
         <v>5</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="5">
         <v>71327.509999999995</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="5">
         <v>71328</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -614,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>99378.62</v>
@@ -629,14 +663,16 @@
         <v>15</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="6">
         <v>84903.43</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K8" s="3">
+        <v>84934.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -644,12 +680,12 @@
         <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="5">
         <v>99374.81</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>99374.86</v>
       </c>
       <c r="G9" s="1">
@@ -659,16 +695,16 @@
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="3">
         <v>84894.29</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="5">
         <v>84895.12</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -676,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>101188.67</v>
@@ -691,7 +727,7 @@
         <v>25</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>89210.26</v>
@@ -700,7 +736,7 @@
         <v>89255.83</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -708,12 +744,12 @@
         <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5">
         <v>101178.52</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>101178.59</v>
       </c>
       <c r="G11" s="2">
@@ -723,16 +759,16 @@
         <v>25</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="5">
         <v>89198.93</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="5">
         <v>89199.58</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -740,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>107571.26</v>
@@ -755,7 +791,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="5">
         <v>97878.080000000002</v>
@@ -764,7 +800,7 @@
         <v>97927.85</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -772,12 +808,12 @@
         <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5">
         <v>107563.33</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>107563.09</v>
       </c>
       <c r="G13" s="1">
@@ -787,16 +823,16 @@
         <v>35</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3">
         <v>97882.07</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="5">
         <v>97883.4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -804,7 +840,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3">
         <v>112656.62</v>
@@ -819,7 +855,7 @@
         <v>45</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" s="5">
         <v>104430.63</v>
@@ -828,7 +864,7 @@
         <v>104475.13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -836,12 +872,12 @@
         <v>45</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="5">
         <v>112653.75999999999</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>112653.97</v>
       </c>
       <c r="G15" s="2">
@@ -851,16 +887,16 @@
         <v>45</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3">
         <v>104433.18</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="5">
         <v>104432.49</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -868,7 +904,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="5">
         <v>118127</v>
@@ -883,7 +919,7 @@
         <v>55</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="5">
         <v>112259.12</v>
@@ -900,12 +936,12 @@
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
         <v>118131.56</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>118131.31</v>
       </c>
       <c r="G17" s="1">
@@ -915,12 +951,12 @@
         <v>55</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
         <v>112260.85</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="5">
         <v>112260.75</v>
       </c>
     </row>
@@ -932,7 +968,7 @@
         <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3">
         <v>124111.61</v>
@@ -947,7 +983,7 @@
         <v>65</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="5">
         <v>119666.94</v>
@@ -964,12 +1000,12 @@
         <v>65</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="5">
         <v>124109.23</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>124109.13</v>
       </c>
       <c r="G19" s="2">
@@ -979,12 +1015,12 @@
         <v>65</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3">
         <v>119672.32000000001</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="5">
         <v>119672.14</v>
       </c>
     </row>
@@ -996,7 +1032,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>126773.38</v>
@@ -1011,7 +1047,7 @@
         <v>75</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" s="3">
         <v>128179.43</v>
@@ -1028,12 +1064,12 @@
         <v>75</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="5">
         <v>126754.2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <v>126754.16</v>
       </c>
       <c r="G21" s="1">
@@ -1043,12 +1079,12 @@
         <v>75</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" s="5">
         <v>128142.2</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="5">
         <v>128142.16</v>
       </c>
     </row>
@@ -1060,7 +1096,7 @@
         <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>122883.22</v>
@@ -1075,7 +1111,7 @@
         <v>85</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>133206.17000000001</v>
@@ -1092,12 +1128,12 @@
         <v>85</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="5">
         <v>122847.07</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <v>122847.08</v>
       </c>
       <c r="G23" s="2">
@@ -1107,12 +1143,12 @@
         <v>85</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J23" s="5">
         <v>133158.98000000001</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="5">
         <v>133158.97</v>
       </c>
     </row>
